--- a/testingLogL2Game.xlsx
+++ b/testingLogL2Game.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbhsschool-my.sharepoint.com/personal/toby_munyard_sbhsstudent_school_nz/Documents/2021/DTC L2/12 Credits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{CEC499CC-3C7D-4663-A9A9-D7D3D111FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0AB306-5C66-447C-A53D-1C7B05AE96D0}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{CEC499CC-3C7D-4663-A9A9-D7D3D111FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{382F5FBF-ADA2-415F-90DD-AA0AD48A3500}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>What is being tested</t>
   </si>
@@ -81,12 +81,6 @@
     <t>enemy is replaced at the top of the canvas at a random Xpos, health is decreased by one and player is repalced at the center of the screen</t>
   </si>
   <si>
-    <t>health drops below 1</t>
-  </si>
-  <si>
-    <t>hitting enemies until the health score drops below 1</t>
-  </si>
-  <si>
     <t>all functions cease and a game over screen is placed over the canvas with a game over message presenting the score and name of the player</t>
   </si>
   <si>
@@ -136,6 +130,21 @@
   </si>
   <si>
     <t>converted to lower case accepted and set</t>
+  </si>
+  <si>
+    <t>health drops to 1</t>
+  </si>
+  <si>
+    <t>health drops to 0</t>
+  </si>
+  <si>
+    <t>hitting enemies until the health score drops to 0</t>
+  </si>
+  <si>
+    <t>game continues to function as usual with all functions active, if hit one more time then health drops to 0</t>
+  </si>
+  <si>
+    <t>anything that is not "easy", "medium" or "hard"</t>
   </si>
 </sst>
 </file>
@@ -533,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0765B1-A414-4F58-91F9-E1D17DAE5A47}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,179 +626,189 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -798,6 +817,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100112F3167D82C0D479DB2D8427D1BB440" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e142eaa539ebb42d3ce3dc2d16550824">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="954e8428-95ac-47d1-9aaf-e0129b6688a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bc3eee79e8ac6441d6afebf77f87e38" ns2:_="">
     <xsd:import namespace="954e8428-95ac-47d1-9aaf-e0129b6688a0"/>
@@ -967,15 +995,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -985,6 +1004,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1DBE2D-E0A3-4B96-83E3-E9979A37600A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -998,14 +1025,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
